--- a/data/924/GACC/CAT/Imports and Exports by Country - Historical.xlsx
+++ b/data/924/GACC/CAT/Imports and Exports by Country - Historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,1136 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
-  <si>
-    <t>Trade</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>1993-01</t>
-  </si>
-  <si>
-    <t>1993-02</t>
-  </si>
-  <si>
-    <t>1993-03</t>
-  </si>
-  <si>
-    <t>1993-04</t>
-  </si>
-  <si>
-    <t>1993-05</t>
-  </si>
-  <si>
-    <t>1993-06</t>
-  </si>
-  <si>
-    <t>1993-07</t>
-  </si>
-  <si>
-    <t>1993-08</t>
-  </si>
-  <si>
-    <t>1993-09</t>
-  </si>
-  <si>
-    <t>1993-10</t>
-  </si>
-  <si>
-    <t>1993-11</t>
-  </si>
-  <si>
-    <t>1993-12</t>
-  </si>
-  <si>
-    <t>1994-01</t>
-  </si>
-  <si>
-    <t>1994-02</t>
-  </si>
-  <si>
-    <t>1994-03</t>
-  </si>
-  <si>
-    <t>1994-04</t>
-  </si>
-  <si>
-    <t>1994-05</t>
-  </si>
-  <si>
-    <t>1994-06</t>
-  </si>
-  <si>
-    <t>1994-07</t>
-  </si>
-  <si>
-    <t>1994-08</t>
-  </si>
-  <si>
-    <t>1994-09</t>
-  </si>
-  <si>
-    <t>1994-10</t>
-  </si>
-  <si>
-    <t>1994-11</t>
-  </si>
-  <si>
-    <t>1994-12</t>
-  </si>
-  <si>
-    <t>1995-01</t>
-  </si>
-  <si>
-    <t>1995-02</t>
-  </si>
-  <si>
-    <t>1995-03</t>
-  </si>
-  <si>
-    <t>1995-04</t>
-  </si>
-  <si>
-    <t>1995-05</t>
-  </si>
-  <si>
-    <t>1995-06</t>
-  </si>
-  <si>
-    <t>1995-07</t>
-  </si>
-  <si>
-    <t>1995-08</t>
-  </si>
-  <si>
-    <t>1995-09</t>
-  </si>
-  <si>
-    <t>1995-10</t>
-  </si>
-  <si>
-    <t>1995-11</t>
-  </si>
-  <si>
-    <t>1995-12</t>
-  </si>
-  <si>
-    <t>1996-01</t>
-  </si>
-  <si>
-    <t>1996-02</t>
-  </si>
-  <si>
-    <t>1996-03</t>
-  </si>
-  <si>
-    <t>1996-04</t>
-  </si>
-  <si>
-    <t>1996-05</t>
-  </si>
-  <si>
-    <t>1996-06</t>
-  </si>
-  <si>
-    <t>1996-07</t>
-  </si>
-  <si>
-    <t>1996-08</t>
-  </si>
-  <si>
-    <t>1996-09</t>
-  </si>
-  <si>
-    <t>1996-10</t>
-  </si>
-  <si>
-    <t>1996-11</t>
-  </si>
-  <si>
-    <t>1996-12</t>
-  </si>
-  <si>
-    <t>1997-01</t>
-  </si>
-  <si>
-    <t>1997-02</t>
-  </si>
-  <si>
-    <t>1997-03</t>
-  </si>
-  <si>
-    <t>1997-04</t>
-  </si>
-  <si>
-    <t>1997-05</t>
-  </si>
-  <si>
-    <t>1997-06</t>
-  </si>
-  <si>
-    <t>1997-07</t>
-  </si>
-  <si>
-    <t>1997-08</t>
-  </si>
-  <si>
-    <t>1997-09</t>
-  </si>
-  <si>
-    <t>1997-10</t>
-  </si>
-  <si>
-    <t>1997-11</t>
-  </si>
-  <si>
-    <t>1997-12</t>
-  </si>
-  <si>
-    <t>1998-01</t>
-  </si>
-  <si>
-    <t>1998-02</t>
-  </si>
-  <si>
-    <t>1998-03</t>
-  </si>
-  <si>
-    <t>1998-04</t>
-  </si>
-  <si>
-    <t>1998-05</t>
-  </si>
-  <si>
-    <t>1998-06</t>
-  </si>
-  <si>
-    <t>1998-07</t>
-  </si>
-  <si>
-    <t>1998-08</t>
-  </si>
-  <si>
-    <t>1998-09</t>
-  </si>
-  <si>
-    <t>1998-10</t>
-  </si>
-  <si>
-    <t>1998-11</t>
-  </si>
-  <si>
-    <t>1998-12</t>
-  </si>
-  <si>
-    <t>1999-01</t>
-  </si>
-  <si>
-    <t>1999-02</t>
-  </si>
-  <si>
-    <t>1999-03</t>
-  </si>
-  <si>
-    <t>1999-04</t>
-  </si>
-  <si>
-    <t>1999-05</t>
-  </si>
-  <si>
-    <t>1999-06</t>
-  </si>
-  <si>
-    <t>1999-07</t>
-  </si>
-  <si>
-    <t>1999-08</t>
-  </si>
-  <si>
-    <t>1999-09</t>
-  </si>
-  <si>
-    <t>1999-10</t>
-  </si>
-  <si>
-    <t>1999-11</t>
-  </si>
-  <si>
-    <t>1999-12</t>
-  </si>
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2000-02</t>
-  </si>
-  <si>
-    <t>2000-03</t>
-  </si>
-  <si>
-    <t>2000-04</t>
-  </si>
-  <si>
-    <t>2000-05</t>
-  </si>
-  <si>
-    <t>2000-06</t>
-  </si>
-  <si>
-    <t>2000-07</t>
-  </si>
-  <si>
-    <t>2000-08</t>
-  </si>
-  <si>
-    <t>2000-09</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>2000-11</t>
-  </si>
-  <si>
-    <t>2000-12</t>
-  </si>
-  <si>
-    <t>2001-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2001-03</t>
-  </si>
-  <si>
-    <t>2001-04</t>
-  </si>
-  <si>
-    <t>2001-05</t>
-  </si>
-  <si>
-    <t>2001-06</t>
-  </si>
-  <si>
-    <t>2001-07</t>
-  </si>
-  <si>
-    <t>2001-08</t>
-  </si>
-  <si>
-    <t>2001-09</t>
-  </si>
-  <si>
-    <t>2001-10</t>
-  </si>
-  <si>
-    <t>2001-11</t>
-  </si>
-  <si>
-    <t>2001-12</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>Imports</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Latin America</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>APEC</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Exports</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Korea,Rep.</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>ASEAN</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1179,6 +49,27 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1488,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MK48"/>
+  <dimension ref="A1:MN48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1496,1061 +387,1778 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:349">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="KF1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="KG1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="KH1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="KI1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="KJ1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="KK1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="KL1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="KM1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="KN1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="KO1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="KP1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="KQ1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="KR1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="KS1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="KT1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="KU1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="KV1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="KW1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="KX1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="KY1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="KZ1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="LA1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="LB1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="LC1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="LD1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="LE1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="LF1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="LG1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="LH1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="LI1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="LJ1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="LK1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="LL1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="LM1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="LN1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="LO1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="LP1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="LQ1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="LR1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="LS1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="LT1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="LU1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="LV1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="LW1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="LX1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="LY1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="LZ1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="MA1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="MB1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="MC1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="MD1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="ME1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="MF1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="MG1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="MH1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="MI1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="MJ1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="MK1" s="1" t="s">
-        <v>348</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trade</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1993-01</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1993-02</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1993-03</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1993-04</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1993-05</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1993-06</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1993-07</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1993-08</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1993-09</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1993-10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1993-11</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1993-12</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1994-01</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1994-02</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1994-03</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1994-04</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1994-05</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1994-06</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1994-07</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1994-08</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1994-09</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1994-10</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1994-11</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1994-12</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1995-01</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1995-02</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1995-03</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1995-04</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1995-05</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1995-06</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1995-07</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1995-08</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1995-09</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1995-10</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1995-11</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1995-12</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1996-02</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1996-03</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1996-04</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1996-05</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1996-06</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1996-07</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1996-08</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1996-09</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1996-10</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1996-11</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1996-12</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1997-01</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-02</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1997-03</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1997-04</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1997-05</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1997-06</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1997-07</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1997-08</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1997-09</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1997-10</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1997-11</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-12</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1998-01</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1998-02</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1998-03</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1998-04</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1998-05</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1998-06</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1998-07</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1998-08</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1998-09</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1998-10</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1998-11</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1998-12</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1999-01</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1999-02</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1999-03</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-04</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>1999-05</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>1999-06</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>1999-07</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>1999-08</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>1999-09</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>1999-10</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>1999-11</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>1999-12</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2000-03</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2000-05</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2000-06</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2000-07</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2000-08</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-09</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2000-10</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2000-11</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2000-12</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2001-03</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2001-04</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2001-05</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-06</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2001-07</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2001-08</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2001-09</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2001-10</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2001-11</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2001-12</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:349">
-      <c r="A2" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>350</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>1908080</v>
@@ -3593,11 +3201,22 @@
       <c r="MK2" t="n">
         <v>143759562.458</v>
       </c>
+      <c r="ML2" t="n">
+        <v>141577264.877</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>135088107.301</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>102947250.276</v>
+      </c>
     </row>
-    <row r="3" spans="1:349">
+    <row r="3">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="s">
-        <v>351</v>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>14270</v>
@@ -4640,11 +4259,22 @@
       <c r="MK3" t="n">
         <v>9553574.549000001</v>
       </c>
+      <c r="ML3" t="n">
+        <v>10046584.623</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>11009292.746</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>8482606.674000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:349">
+    <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="s">
-        <v>352</v>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>823590</v>
@@ -5687,11 +5317,22 @@
       <c r="MK4" t="n">
         <v>45044674.163</v>
       </c>
+      <c r="ML4" t="n">
+        <v>43483038.186</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>42000182.135</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>34660740.934</v>
+      </c>
     </row>
-    <row r="5" spans="1:349">
+    <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="s">
-        <v>353</v>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>54690</v>
@@ -6734,11 +6375,22 @@
       <c r="MK5" t="n">
         <v>19621102.602</v>
       </c>
+      <c r="ML5" t="n">
+        <v>17689103.267</v>
+      </c>
+      <c r="MM5" t="n">
+        <v>17826220.71</v>
+      </c>
+      <c r="MN5" t="n">
+        <v>15000541.89</v>
+      </c>
     </row>
-    <row r="6" spans="1:349">
+    <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="s">
-        <v>354</v>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>330490</v>
@@ -7781,11 +7433,22 @@
       <c r="MK6" t="n">
         <v>20664415.734</v>
       </c>
+      <c r="ML6" t="n">
+        <v>20107679.464</v>
+      </c>
+      <c r="MM6" t="n">
+        <v>21114750.077</v>
+      </c>
+      <c r="MN6" t="n">
+        <v>14921550.909</v>
+      </c>
     </row>
-    <row r="7" spans="1:349">
+    <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="s">
-        <v>355</v>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>72120</v>
@@ -8828,11 +8491,22 @@
       <c r="MK7" t="n">
         <v>15010123.805</v>
       </c>
+      <c r="ML7" t="n">
+        <v>12958095.133</v>
+      </c>
+      <c r="MM7" t="n">
+        <v>14726819.126</v>
+      </c>
+      <c r="MN7" t="n">
+        <v>10697351.126</v>
+      </c>
     </row>
-    <row r="8" spans="1:349">
+    <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="s">
-        <v>356</v>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>APEC</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9875,11 +9549,22 @@
       <c r="MK8" t="n">
         <v>168383509.737</v>
       </c>
+      <c r="ML8" t="n">
+        <v>164276258.973</v>
+      </c>
+      <c r="MM8" t="n">
+        <v>158214382.462</v>
+      </c>
+      <c r="MN8" t="n">
+        <v>118682817.518</v>
+      </c>
     </row>
-    <row r="9" spans="1:349">
+    <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="s">
-        <v>357</v>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>62940</v>
@@ -10922,11 +10607,22 @@
       <c r="MK9" t="n">
         <v>3336561.717</v>
       </c>
+      <c r="ML9" t="n">
+        <v>3468480.775</v>
+      </c>
+      <c r="MM9" t="n">
+        <v>3525123.036</v>
+      </c>
+      <c r="MN9" t="n">
+        <v>2536744.07</v>
+      </c>
     </row>
-    <row r="10" spans="1:349">
+    <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="s">
-        <v>358</v>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>16390</v>
@@ -11969,11 +11665,22 @@
       <c r="MK10" t="n">
         <v>5094951.827</v>
       </c>
+      <c r="ML10" t="n">
+        <v>4788459.147</v>
+      </c>
+      <c r="MM10" t="n">
+        <v>5031106.188</v>
+      </c>
+      <c r="MN10" t="n">
+        <v>3808140.812</v>
+      </c>
     </row>
-    <row r="11" spans="1:349">
+    <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="s">
-        <v>359</v>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>10560</v>
@@ -13016,11 +12723,22 @@
       <c r="MK11" t="n">
         <v>1375142.577</v>
       </c>
+      <c r="ML11" t="n">
+        <v>1237629.899</v>
+      </c>
+      <c r="MM11" t="n">
+        <v>2066386.879</v>
+      </c>
+      <c r="MN11" t="n">
+        <v>1148483.55</v>
+      </c>
     </row>
-    <row r="12" spans="1:349">
+    <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="s">
-        <v>360</v>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>27560</v>
@@ -14063,11 +13781,22 @@
       <c r="MK12" t="n">
         <v>2794567.595</v>
       </c>
+      <c r="ML12" t="n">
+        <v>2280032.941</v>
+      </c>
+      <c r="MM12" t="n">
+        <v>2372969.041</v>
+      </c>
+      <c r="MN12" t="n">
+        <v>1665436.273</v>
+      </c>
     </row>
-    <row r="13" spans="1:349">
+    <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="s">
-        <v>361</v>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>138310</v>
@@ -15110,11 +14839,22 @@
       <c r="MK13" t="n">
         <v>10907777.891</v>
       </c>
+      <c r="ML13" t="n">
+        <v>10205794.811</v>
+      </c>
+      <c r="MM13" t="n">
+        <v>9733552.217</v>
+      </c>
+      <c r="MN13" t="n">
+        <v>8036554.805</v>
+      </c>
     </row>
-    <row r="14" spans="1:349">
+    <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="s">
-        <v>362</v>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>4075</v>
@@ -16157,11 +15897,22 @@
       <c r="MK14" t="n">
         <v>3537671.573</v>
       </c>
+      <c r="ML14" t="n">
+        <v>3945795.076</v>
+      </c>
+      <c r="MM14" t="n">
+        <v>3048023.734</v>
+      </c>
+      <c r="MN14" t="n">
+        <v>2521516.592</v>
+      </c>
     </row>
-    <row r="15" spans="1:349">
+    <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="s">
-        <v>363</v>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>66820</v>
@@ -17204,11 +16955,22 @@
       <c r="MK15" t="n">
         <v>2518756.076</v>
       </c>
+      <c r="ML15" t="n">
+        <v>2671662.059</v>
+      </c>
+      <c r="MM15" t="n">
+        <v>2565130.983</v>
+      </c>
+      <c r="MN15" t="n">
+        <v>1964256.395</v>
+      </c>
     </row>
-    <row r="16" spans="1:349">
+    <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="s">
-        <v>364</v>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>64680</v>
@@ -18251,13 +18013,26 @@
       <c r="MK16" t="n">
         <v>2863425.487</v>
       </c>
+      <c r="ML16" t="n">
+        <v>2930168.621</v>
+      </c>
+      <c r="MM16" t="n">
+        <v>2399526.364</v>
+      </c>
+      <c r="MN16" t="n">
+        <v>1796346.914</v>
+      </c>
     </row>
-    <row r="17" spans="1:349">
-      <c r="A17" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>350</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>1995170</v>
@@ -19300,11 +19075,22 @@
       <c r="MK17" t="n">
         <v>154341624.748</v>
       </c>
+      <c r="ML17" t="n">
+        <v>162882567.582</v>
+      </c>
+      <c r="MM17" t="n">
+        <v>153164498.535</v>
+      </c>
+      <c r="MN17" t="n">
+        <v>93827743.54000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:349">
+    <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="s">
-        <v>351</v>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>36560</v>
@@ -20347,11 +20133,22 @@
       <c r="MK18" t="n">
         <v>13618226.306</v>
       </c>
+      <c r="ML18" t="n">
+        <v>13821727.163</v>
+      </c>
+      <c r="MM18" t="n">
+        <v>15396684.378</v>
+      </c>
+      <c r="MN18" t="n">
+        <v>8262168.677</v>
+      </c>
     </row>
-    <row r="19" spans="1:349">
+    <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="s">
-        <v>352</v>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>607900</v>
@@ -21394,11 +21191,22 @@
       <c r="MK19" t="n">
         <v>67426126.529</v>
       </c>
+      <c r="ML19" t="n">
+        <v>72085753.715</v>
+      </c>
+      <c r="MM19" t="n">
+        <v>70801366.116</v>
+      </c>
+      <c r="MN19" t="n">
+        <v>51636910.268</v>
+      </c>
     </row>
-    <row r="20" spans="1:349">
+    <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="s">
-        <v>353</v>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>57850</v>
@@ -22441,11 +22249,22 @@
       <c r="MK20" t="n">
         <v>22451631.037</v>
       </c>
+      <c r="ML20" t="n">
+        <v>22747478.421</v>
+      </c>
+      <c r="MM20" t="n">
+        <v>23083094.521</v>
+      </c>
+      <c r="MN20" t="n">
+        <v>14459241.401</v>
+      </c>
     </row>
-    <row r="21" spans="1:349">
+    <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="s">
-        <v>354</v>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>617130</v>
@@ -23488,11 +23307,22 @@
       <c r="MK21" t="n">
         <v>59815904.45</v>
       </c>
+      <c r="ML21" t="n">
+        <v>60952707.653</v>
+      </c>
+      <c r="MM21" t="n">
+        <v>56461023.851</v>
+      </c>
+      <c r="MN21" t="n">
+        <v>43429324.98</v>
+      </c>
     </row>
-    <row r="22" spans="1:349">
+    <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="s">
-        <v>355</v>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>39470</v>
@@ -24535,60 +24365,71 @@
       <c r="MK22" t="n">
         <v>7871773.394</v>
       </c>
+      <c r="ML22" t="n">
+        <v>8008545.293</v>
+      </c>
+      <c r="MM22" t="n">
+        <v>8379285.96</v>
+      </c>
+      <c r="MN22" t="n">
+        <v>5801115.249</v>
+      </c>
     </row>
-    <row r="23" spans="1:349">
+    <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C23" t="s"/>
-      <c r="D23" t="s"/>
-      <c r="E23" t="s"/>
-      <c r="F23" t="s"/>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s"/>
-      <c r="J23" t="s"/>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
-      <c r="M23" t="s"/>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
-      <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
-      <c r="V23" t="s"/>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
-      <c r="Z23" t="s"/>
-      <c r="AA23" t="s"/>
-      <c r="AB23" t="s"/>
-      <c r="AC23" t="s"/>
-      <c r="AD23" t="s"/>
-      <c r="AE23" t="s"/>
-      <c r="AF23" t="s"/>
-      <c r="AG23" t="s"/>
-      <c r="AH23" t="s"/>
-      <c r="AI23" t="s"/>
-      <c r="AJ23" t="s"/>
-      <c r="AK23" t="s"/>
-      <c r="AL23" t="s"/>
-      <c r="AM23" t="s"/>
-      <c r="AN23" t="s"/>
-      <c r="AO23" t="s"/>
-      <c r="AP23" t="s"/>
-      <c r="AQ23" t="s"/>
-      <c r="AR23" t="s"/>
-      <c r="AS23" t="s"/>
-      <c r="AT23" t="s"/>
-      <c r="AU23" t="s"/>
-      <c r="AV23" t="s"/>
-      <c r="AW23" t="s"/>
-      <c r="AX23" t="s"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>APEC</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="n">
         <v>8870045</v>
       </c>
@@ -25486,11 +25327,22 @@
       <c r="MK23" t="n">
         <v>202891773.207</v>
       </c>
+      <c r="ML23" t="n">
+        <v>209750036.368</v>
+      </c>
+      <c r="MM23" t="n">
+        <v>195549814.926</v>
+      </c>
+      <c r="MN23" t="n">
+        <v>129817832.802</v>
+      </c>
     </row>
-    <row r="24" spans="1:349">
+    <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="s">
-        <v>357</v>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>66860</v>
@@ -26533,11 +26385,22 @@
       <c r="MK24" t="n">
         <v>5055015.114</v>
       </c>
+      <c r="ML24" t="n">
+        <v>6108815.994</v>
+      </c>
+      <c r="MM24" t="n">
+        <v>4885006.56</v>
+      </c>
+      <c r="MN24" t="n">
+        <v>3305668.15</v>
+      </c>
     </row>
-    <row r="25" spans="1:349">
+    <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="s">
-        <v>358</v>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>31980</v>
@@ -27580,11 +27443,22 @@
       <c r="MK25" t="n">
         <v>6547582.949</v>
       </c>
+      <c r="ML25" t="n">
+        <v>7254406.052</v>
+      </c>
+      <c r="MM25" t="n">
+        <v>7320341.725</v>
+      </c>
+      <c r="MN25" t="n">
+        <v>4192274.517</v>
+      </c>
     </row>
-    <row r="26" spans="1:349">
+    <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="s">
-        <v>360</v>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>79520</v>
@@ -28627,11 +28501,22 @@
       <c r="MK26" t="n">
         <v>7921343.604</v>
       </c>
+      <c r="ML26" t="n">
+        <v>8285030.151</v>
+      </c>
+      <c r="MM26" t="n">
+        <v>7763237.702</v>
+      </c>
+      <c r="MN26" t="n">
+        <v>5320129.933</v>
+      </c>
     </row>
-    <row r="27" spans="1:349">
+    <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="s">
-        <v>361</v>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>159520</v>
@@ -29674,11 +29559,22 @@
       <c r="MK27" t="n">
         <v>10841347.815</v>
       </c>
+      <c r="ML27" t="n">
+        <v>12252943.268</v>
+      </c>
+      <c r="MM27" t="n">
+        <v>10912959.482</v>
+      </c>
+      <c r="MN27" t="n">
+        <v>8260834.563</v>
+      </c>
     </row>
-    <row r="28" spans="1:349">
+    <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="s">
-        <v>362</v>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>51720</v>
@@ -30721,11 +30617,22 @@
       <c r="MK28" t="n">
         <v>4447565.394</v>
       </c>
+      <c r="ML28" t="n">
+        <v>4200064.474</v>
+      </c>
+      <c r="MM28" t="n">
+        <v>4789722.96</v>
+      </c>
+      <c r="MN28" t="n">
+        <v>3123860.911</v>
+      </c>
     </row>
-    <row r="29" spans="1:349">
+    <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="s">
-        <v>363</v>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>54680</v>
@@ -31768,11 +31675,22 @@
       <c r="MK29" t="n">
         <v>4077122.749</v>
       </c>
+      <c r="ML29" t="n">
+        <v>4424594.887</v>
+      </c>
+      <c r="MM29" t="n">
+        <v>5194499.871</v>
+      </c>
+      <c r="MN29" t="n">
+        <v>3563550.02</v>
+      </c>
     </row>
-    <row r="30" spans="1:349">
+    <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="s">
-        <v>364</v>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>50870</v>
@@ -32815,11 +32733,22 @@
       <c r="MK30" t="n">
         <v>5092852.496</v>
       </c>
+      <c r="ML30" t="n">
+        <v>4585526.95</v>
+      </c>
+      <c r="MM30" t="n">
+        <v>4707652.881</v>
+      </c>
+      <c r="MN30" t="n">
+        <v>3607134.703</v>
+      </c>
     </row>
-    <row r="31" spans="1:349">
+    <row r="31">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="s">
-        <v>359</v>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>3360</v>
@@ -33862,11 +33791,22 @@
       <c r="MK31" t="n">
         <v>806811.996</v>
       </c>
+      <c r="ML31" t="n">
+        <v>797243.841</v>
+      </c>
+      <c r="MM31" t="n">
+        <v>918714.553</v>
+      </c>
+      <c r="MN31" t="n">
+        <v>511170.371</v>
+      </c>
     </row>
-    <row r="32" spans="1:349">
+    <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="s">
-        <v>366</v>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
       </c>
       <c r="C32" t="n">
         <v>1102480</v>
@@ -34909,11 +34849,22 @@
       <c r="MK32" t="n">
         <v>35698084.2</v>
       </c>
+      <c r="ML32" t="n">
+        <v>38254304.536</v>
+      </c>
+      <c r="MM32" t="n">
+        <v>29617509.473</v>
+      </c>
+      <c r="MN32" t="n">
+        <v>17326826.34</v>
+      </c>
     </row>
-    <row r="33" spans="1:349">
+    <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="s">
-        <v>367</v>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
       </c>
       <c r="C33" t="n">
         <v>442440</v>
@@ -35956,11 +35907,22 @@
       <c r="MK33" t="n">
         <v>15319768.367</v>
       </c>
+      <c r="ML33" t="n">
+        <v>14590485.943</v>
+      </c>
+      <c r="MM33" t="n">
+        <v>16553569.856</v>
+      </c>
+      <c r="MN33" t="n">
+        <v>10505051.959</v>
+      </c>
     </row>
-    <row r="34" spans="1:349">
+    <row r="34">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="s">
-        <v>368</v>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Korea,Rep.</t>
+        </is>
       </c>
       <c r="C34" t="n">
         <v>96510</v>
@@ -37003,11 +36965,22 @@
       <c r="MK34" t="n">
         <v>14735693.264</v>
       </c>
+      <c r="ML34" t="n">
+        <v>14954749.283</v>
+      </c>
+      <c r="MM34" t="n">
+        <v>14480264.683</v>
+      </c>
+      <c r="MN34" t="n">
+        <v>9215878.318</v>
+      </c>
     </row>
-    <row r="35" spans="1:349">
+    <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="s">
-        <v>369</v>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
       </c>
       <c r="C35" t="n">
         <v>50020</v>
@@ -38050,11 +38023,22 @@
       <c r="MK35" t="n">
         <v>7322799.539</v>
       </c>
+      <c r="ML35" t="n">
+        <v>7599205.688</v>
+      </c>
+      <c r="MM35" t="n">
+        <v>7521645.094</v>
+      </c>
+      <c r="MN35" t="n">
+        <v>4661437.322</v>
+      </c>
     </row>
-    <row r="36" spans="1:349">
+    <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="s">
-        <v>370</v>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
       </c>
       <c r="C36" t="n">
         <v>85380</v>
@@ -39097,11 +39081,22 @@
       <c r="MK36" t="n">
         <v>6540935.784</v>
       </c>
+      <c r="ML36" t="n">
+        <v>8136777.2</v>
+      </c>
+      <c r="MM36" t="n">
+        <v>7380617.482</v>
+      </c>
+      <c r="MN36" t="n">
+        <v>5237090.864</v>
+      </c>
     </row>
-    <row r="37" spans="1:349">
+    <row r="37">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="s">
-        <v>371</v>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
       </c>
       <c r="C37" t="n">
         <v>566250</v>
@@ -40144,11 +40139,22 @@
       <c r="MK37" t="n">
         <v>54717750.508</v>
       </c>
+      <c r="ML37" t="n">
+        <v>56365424.306</v>
+      </c>
+      <c r="MM37" t="n">
+        <v>51748335.309</v>
+      </c>
+      <c r="MN37" t="n">
+        <v>39795728.746</v>
+      </c>
     </row>
-    <row r="38" spans="1:349">
+    <row r="38">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="s">
-        <v>372</v>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
       </c>
       <c r="C38" t="n">
         <v>35460</v>
@@ -41191,60 +41197,71 @@
       <c r="MK38" t="n">
         <v>6541775.555</v>
       </c>
+      <c r="ML38" t="n">
+        <v>6820813.509</v>
+      </c>
+      <c r="MM38" t="n">
+        <v>6924400.491</v>
+      </c>
+      <c r="MN38" t="n">
+        <v>5017060.794</v>
+      </c>
     </row>
-    <row r="39" spans="1:349">
+    <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C39" t="s"/>
-      <c r="D39" t="s"/>
-      <c r="E39" t="s"/>
-      <c r="F39" t="s"/>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s"/>
-      <c r="J39" t="s"/>
-      <c r="K39" t="s"/>
-      <c r="L39" t="s"/>
-      <c r="M39" t="s"/>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
-      <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
-      <c r="V39" t="s"/>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
-      <c r="Z39" t="s"/>
-      <c r="AA39" t="s"/>
-      <c r="AB39" t="s"/>
-      <c r="AC39" t="s"/>
-      <c r="AD39" t="s"/>
-      <c r="AE39" t="s"/>
-      <c r="AF39" t="s"/>
-      <c r="AG39" t="s"/>
-      <c r="AH39" t="s"/>
-      <c r="AI39" t="s"/>
-      <c r="AJ39" t="s"/>
-      <c r="AK39" t="s"/>
-      <c r="AL39" t="s"/>
-      <c r="AM39" t="s"/>
-      <c r="AN39" t="s"/>
-      <c r="AO39" t="s"/>
-      <c r="AP39" t="s"/>
-      <c r="AQ39" t="s"/>
-      <c r="AR39" t="s"/>
-      <c r="AS39" t="s"/>
-      <c r="AT39" t="s"/>
-      <c r="AU39" t="s"/>
-      <c r="AV39" t="s"/>
-      <c r="AW39" t="s"/>
-      <c r="AX39" t="s"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ASEAN</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="n">
         <v>737848</v>
       </c>
@@ -42142,13 +42159,26 @@
       <c r="MK39" t="n">
         <v>47812952.955</v>
       </c>
+      <c r="ML39" t="n">
+        <v>49759324.428</v>
+      </c>
+      <c r="MM39" t="n">
+        <v>47873882.633</v>
+      </c>
+      <c r="MN39" t="n">
+        <v>28447976.852</v>
+      </c>
     </row>
-    <row r="40" spans="1:349">
-      <c r="A40" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>366</v>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
       </c>
       <c r="C40" t="n">
         <v>500790</v>
@@ -43191,11 +43221,22 @@
       <c r="MK40" t="n">
         <v>717917.797</v>
       </c>
+      <c r="ML40" t="n">
+        <v>720754.865</v>
+      </c>
+      <c r="MM40" t="n">
+        <v>670043.4669999999</v>
+      </c>
+      <c r="MN40" t="n">
+        <v>327440.195</v>
+      </c>
     </row>
-    <row r="41" spans="1:349">
+    <row r="41">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="s">
-        <v>367</v>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
       </c>
       <c r="C41" t="n">
         <v>643200</v>
@@ -44238,11 +44279,22 @@
       <c r="MK41" t="n">
         <v>18737632.299</v>
       </c>
+      <c r="ML41" t="n">
+        <v>17625278.541</v>
+      </c>
+      <c r="MM41" t="n">
+        <v>16467847.121</v>
+      </c>
+      <c r="MN41" t="n">
+        <v>13862779.221</v>
+      </c>
     </row>
-    <row r="42" spans="1:349">
+    <row r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="s">
-        <v>368</v>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Korea,Rep.</t>
+        </is>
       </c>
       <c r="C42" t="n">
         <v>124280</v>
@@ -45285,11 +45337,22 @@
       <c r="MK42" t="n">
         <v>20747770.548</v>
       </c>
+      <c r="ML42" t="n">
+        <v>19695824.588</v>
+      </c>
+      <c r="MM42" t="n">
+        <v>19259011.563</v>
+      </c>
+      <c r="MN42" t="n">
+        <v>15016217.143</v>
+      </c>
     </row>
-    <row r="43" spans="1:349">
+    <row r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="s">
-        <v>369</v>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
       </c>
       <c r="C43" t="n">
         <v>383530</v>
@@ -46332,11 +46395,22 @@
       <c r="MK43" t="n">
         <v>24661153.127</v>
       </c>
+      <c r="ML43" t="n">
+        <v>23968391.437</v>
+      </c>
+      <c r="MM43" t="n">
+        <v>22955654.227</v>
+      </c>
+      <c r="MN43" t="n">
+        <v>17052240.486</v>
+      </c>
     </row>
-    <row r="44" spans="1:349">
+    <row r="44">
       <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="s">
-        <v>370</v>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
       </c>
       <c r="C44" t="n">
         <v>427810</v>
@@ -47379,11 +47453,22 @@
       <c r="MK44" t="n">
         <v>8203114.687</v>
       </c>
+      <c r="ML44" t="n">
+        <v>8306904.576</v>
+      </c>
+      <c r="MM44" t="n">
+        <v>7574814.405</v>
+      </c>
+      <c r="MN44" t="n">
+        <v>6238632.567</v>
+      </c>
     </row>
-    <row r="45" spans="1:349">
+    <row r="45">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="s">
-        <v>371</v>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
       </c>
       <c r="C45" t="n">
         <v>265790</v>
@@ -48426,11 +48511,22 @@
       <c r="MK45" t="n">
         <v>17768868.907</v>
       </c>
+      <c r="ML45" t="n">
+        <v>17131807.795</v>
+      </c>
+      <c r="MM45" t="n">
+        <v>18670586.916</v>
+      </c>
+      <c r="MN45" t="n">
+        <v>13102326.318</v>
+      </c>
     </row>
-    <row r="46" spans="1:349">
+    <row r="46">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="s">
-        <v>372</v>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
       </c>
       <c r="C46" t="n">
         <v>61560</v>
@@ -49473,60 +49569,71 @@
       <c r="MK46" t="n">
         <v>13065422.496</v>
       </c>
+      <c r="ML46" t="n">
+        <v>11366890.159</v>
+      </c>
+      <c r="MM46" t="n">
+        <v>12266244.321</v>
+      </c>
+      <c r="MN46" t="n">
+        <v>9261160.198000001</v>
+      </c>
     </row>
-    <row r="47" spans="1:349">
+    <row r="47">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C47" t="s"/>
-      <c r="D47" t="s"/>
-      <c r="E47" t="s"/>
-      <c r="F47" t="s"/>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s"/>
-      <c r="J47" t="s"/>
-      <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
-      <c r="M47" t="s"/>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
-      <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
-      <c r="V47" t="s"/>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
-      <c r="Z47" t="s"/>
-      <c r="AA47" t="s"/>
-      <c r="AB47" t="s"/>
-      <c r="AC47" t="s"/>
-      <c r="AD47" t="s"/>
-      <c r="AE47" t="s"/>
-      <c r="AF47" t="s"/>
-      <c r="AG47" t="s"/>
-      <c r="AH47" t="s"/>
-      <c r="AI47" t="s"/>
-      <c r="AJ47" t="s"/>
-      <c r="AK47" t="s"/>
-      <c r="AL47" t="s"/>
-      <c r="AM47" t="s"/>
-      <c r="AN47" t="s"/>
-      <c r="AO47" t="s"/>
-      <c r="AP47" t="s"/>
-      <c r="AQ47" t="s"/>
-      <c r="AR47" t="s"/>
-      <c r="AS47" t="s"/>
-      <c r="AT47" t="s"/>
-      <c r="AU47" t="s"/>
-      <c r="AV47" t="s"/>
-      <c r="AW47" t="s"/>
-      <c r="AX47" t="s"/>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ASEAN</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="n">
         <v>884648</v>
       </c>
@@ -50424,11 +50531,22 @@
       <c r="MK47" t="n">
         <v>38468005.279</v>
       </c>
+      <c r="ML47" t="n">
+        <v>39646974.282</v>
+      </c>
+      <c r="MM47" t="n">
+        <v>34540008.989</v>
+      </c>
+      <c r="MN47" t="n">
+        <v>25728896.454</v>
+      </c>
     </row>
-    <row r="48" spans="1:349">
+    <row r="48">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="s">
-        <v>374</v>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
       </c>
       <c r="C48" t="n">
         <v>314440</v>
@@ -51470,6 +51588,15 @@
       </c>
       <c r="MK48" t="n">
         <v>27288334.838</v>
+      </c>
+      <c r="ML48" t="n">
+        <v>27709645.081</v>
+      </c>
+      <c r="MM48" t="n">
+        <v>24652915.093</v>
+      </c>
+      <c r="MN48" t="n">
+        <v>21127938.684</v>
       </c>
     </row>
   </sheetData>

--- a/data/924/GACC/CAT/Imports and Exports by Country - Historical.xlsx
+++ b/data/924/GACC/CAT/Imports and Exports by Country - Historical.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MN48"/>
+  <dimension ref="A1:MO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2148,6 +2148,11 @@
           <t>2022-02</t>
         </is>
       </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3209,6 +3214,9 @@
       </c>
       <c r="MN2" t="n">
         <v>102947250.276</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>130322604.152</v>
       </c>
     </row>
     <row r="3">
@@ -4268,6 +4276,9 @@
       <c r="MN3" t="n">
         <v>8482606.674000001</v>
       </c>
+      <c r="MO3" t="n">
+        <v>10140751.787</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -5326,6 +5337,9 @@
       <c r="MN4" t="n">
         <v>34660740.934</v>
       </c>
+      <c r="MO4" t="n">
+        <v>40047183.578</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -6384,6 +6398,9 @@
       <c r="MN5" t="n">
         <v>15000541.89</v>
       </c>
+      <c r="MO5" t="n">
+        <v>17636891.912</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -7442,6 +7459,9 @@
       <c r="MN6" t="n">
         <v>14921550.909</v>
       </c>
+      <c r="MO6" t="n">
+        <v>17366560.865</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -8500,6 +8520,9 @@
       <c r="MN7" t="n">
         <v>10697351.126</v>
       </c>
+      <c r="MO7" t="n">
+        <v>13073458.436</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -9558,6 +9581,9 @@
       <c r="MN8" t="n">
         <v>118682817.518</v>
       </c>
+      <c r="MO8" t="n">
+        <v>147952477.341</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -10616,6 +10642,9 @@
       <c r="MN9" t="n">
         <v>2536744.07</v>
       </c>
+      <c r="MO9" t="n">
+        <v>3268628.048</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -11674,6 +11703,9 @@
       <c r="MN10" t="n">
         <v>3808140.812</v>
       </c>
+      <c r="MO10" t="n">
+        <v>4951259.157</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -12732,6 +12764,9 @@
       <c r="MN11" t="n">
         <v>1148483.55</v>
       </c>
+      <c r="MO11" t="n">
+        <v>1342713.926</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -13790,6 +13825,9 @@
       <c r="MN12" t="n">
         <v>1665436.273</v>
       </c>
+      <c r="MO12" t="n">
+        <v>2173795.711</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -14848,6 +14886,9 @@
       <c r="MN13" t="n">
         <v>8036554.805</v>
       </c>
+      <c r="MO13" t="n">
+        <v>9272210.086999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -15906,6 +15947,9 @@
       <c r="MN14" t="n">
         <v>2521516.592</v>
       </c>
+      <c r="MO14" t="n">
+        <v>3043776.613</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -16964,6 +17008,9 @@
       <c r="MN15" t="n">
         <v>1964256.395</v>
       </c>
+      <c r="MO15" t="n">
+        <v>2315979.098</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -18022,6 +18069,9 @@
       <c r="MN16" t="n">
         <v>1796346.914</v>
       </c>
+      <c r="MO16" t="n">
+        <v>2119795.428</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -19083,6 +19133,9 @@
       </c>
       <c r="MN17" t="n">
         <v>93827743.54000001</v>
+      </c>
+      <c r="MO17" t="n">
+        <v>131493882.746</v>
       </c>
     </row>
     <row r="18">
@@ -20142,6 +20195,9 @@
       <c r="MN18" t="n">
         <v>8262168.677</v>
       </c>
+      <c r="MO18" t="n">
+        <v>11502210.625</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -21200,6 +21256,9 @@
       <c r="MN19" t="n">
         <v>51636910.268</v>
       </c>
+      <c r="MO19" t="n">
+        <v>56105085.183</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -22258,6 +22317,9 @@
       <c r="MN20" t="n">
         <v>14459241.401</v>
       </c>
+      <c r="MO20" t="n">
+        <v>18090044.911</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -23316,6 +23378,9 @@
       <c r="MN21" t="n">
         <v>43429324.98</v>
       </c>
+      <c r="MO21" t="n">
+        <v>51771933.382</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -24373,6 +24438,9 @@
       </c>
       <c r="MN22" t="n">
         <v>5801115.249</v>
+      </c>
+      <c r="MO22" t="n">
+        <v>7121455.806</v>
       </c>
     </row>
     <row r="23">
@@ -25336,6 +25404,9 @@
       <c r="MN23" t="n">
         <v>129817832.802</v>
       </c>
+      <c r="MO23" t="n">
+        <v>168154038.864</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -26394,6 +26465,9 @@
       <c r="MN24" t="n">
         <v>3305668.15</v>
       </c>
+      <c r="MO24" t="n">
+        <v>4913348.533</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -27452,6 +27526,9 @@
       <c r="MN25" t="n">
         <v>4192274.517</v>
       </c>
+      <c r="MO25" t="n">
+        <v>6315692.236</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -28510,6 +28587,9 @@
       <c r="MN26" t="n">
         <v>5320129.933</v>
       </c>
+      <c r="MO26" t="n">
+        <v>6177725.35</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -29568,6 +29648,9 @@
       <c r="MN27" t="n">
         <v>8260834.563</v>
       </c>
+      <c r="MO27" t="n">
+        <v>9487970.233999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -30626,6 +30709,9 @@
       <c r="MN28" t="n">
         <v>3123860.911</v>
       </c>
+      <c r="MO28" t="n">
+        <v>3620361.763</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -31684,6 +31770,9 @@
       <c r="MN29" t="n">
         <v>3563550.02</v>
       </c>
+      <c r="MO29" t="n">
+        <v>3983934.062</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
@@ -32742,6 +32831,9 @@
       <c r="MN30" t="n">
         <v>3607134.703</v>
       </c>
+      <c r="MO30" t="n">
+        <v>4458764.097</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -33800,6 +33892,9 @@
       <c r="MN31" t="n">
         <v>511170.371</v>
       </c>
+      <c r="MO31" t="n">
+        <v>732332.779</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
@@ -34858,6 +34953,9 @@
       <c r="MN32" t="n">
         <v>17326826.34</v>
       </c>
+      <c r="MO32" t="n">
+        <v>21849333.354</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -35916,6 +36014,9 @@
       <c r="MN33" t="n">
         <v>10505051.959</v>
       </c>
+      <c r="MO33" t="n">
+        <v>14850470.227</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -36974,6 +37075,9 @@
       <c r="MN34" t="n">
         <v>9215878.318</v>
       </c>
+      <c r="MO34" t="n">
+        <v>13303779.149</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -38032,6 +38136,9 @@
       <c r="MN35" t="n">
         <v>4661437.322</v>
       </c>
+      <c r="MO35" t="n">
+        <v>8152283.806</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
@@ -39090,6 +39197,9 @@
       <c r="MN36" t="n">
         <v>5237090.864</v>
       </c>
+      <c r="MO36" t="n">
+        <v>3825254.659</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -40148,6 +40258,9 @@
       <c r="MN37" t="n">
         <v>39795728.746</v>
       </c>
+      <c r="MO37" t="n">
+        <v>47311097.63</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
@@ -41205,6 +41318,9 @@
       </c>
       <c r="MN38" t="n">
         <v>5017060.794</v>
+      </c>
+      <c r="MO38" t="n">
+        <v>5919591.432</v>
       </c>
     </row>
     <row r="39">
@@ -42168,6 +42284,9 @@
       <c r="MN39" t="n">
         <v>28447976.852</v>
       </c>
+      <c r="MO39" t="n">
+        <v>41646300.002</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -43229,6 +43348,9 @@
       </c>
       <c r="MN40" t="n">
         <v>327440.195</v>
+      </c>
+      <c r="MO40" t="n">
+        <v>696527.275</v>
       </c>
     </row>
     <row r="41">
@@ -44288,6 +44410,9 @@
       <c r="MN41" t="n">
         <v>13862779.221</v>
       </c>
+      <c r="MO41" t="n">
+        <v>17364213.438</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -45346,6 +45471,9 @@
       <c r="MN42" t="n">
         <v>15016217.143</v>
       </c>
+      <c r="MO42" t="n">
+        <v>19016735.278</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -46404,6 +46532,9 @@
       <c r="MN43" t="n">
         <v>17052240.486</v>
       </c>
+      <c r="MO43" t="n">
+        <v>22230534.675</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
@@ -47462,6 +47593,9 @@
       <c r="MN44" t="n">
         <v>6238632.567</v>
       </c>
+      <c r="MO44" t="n">
+        <v>7843945.922</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -48520,6 +48654,9 @@
       <c r="MN45" t="n">
         <v>13102326.318</v>
       </c>
+      <c r="MO45" t="n">
+        <v>15224696.153</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -49577,6 +49714,9 @@
       </c>
       <c r="MN46" t="n">
         <v>9261160.198000001</v>
+      </c>
+      <c r="MO46" t="n">
+        <v>11174278.106</v>
       </c>
     </row>
     <row r="47">
@@ -50540,6 +50680,9 @@
       <c r="MN47" t="n">
         <v>25728896.454</v>
       </c>
+      <c r="MO47" t="n">
+        <v>33989506.357</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -51597,6 +51740,9 @@
       </c>
       <c r="MN48" t="n">
         <v>21127938.684</v>
+      </c>
+      <c r="MO48" t="n">
+        <v>24322433.751</v>
       </c>
     </row>
   </sheetData>
